--- a/Output/Diagnostics/unknowns.xlsx
+++ b/Output/Diagnostics/unknowns.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="78">
   <si>
     <t>sample_id</t>
   </si>
@@ -26,6 +26,228 @@
   </si>
   <si>
     <t>genotype</t>
+  </si>
+  <si>
+    <t>G001040591</t>
+  </si>
+  <si>
+    <t>G001040623</t>
+  </si>
+  <si>
+    <t>G001121516</t>
+  </si>
+  <si>
+    <t>G001121517</t>
+  </si>
+  <si>
+    <t>G001121529</t>
+  </si>
+  <si>
+    <t>G001121536</t>
+  </si>
+  <si>
+    <t>G001121560</t>
+  </si>
+  <si>
+    <t>G001121564</t>
+  </si>
+  <si>
+    <t>G001121567</t>
+  </si>
+  <si>
+    <t>G001121581</t>
+  </si>
+  <si>
+    <t>G001121583</t>
+  </si>
+  <si>
+    <t>G001121584</t>
+  </si>
+  <si>
+    <t>G001121589</t>
+  </si>
+  <si>
+    <t>G001121703</t>
+  </si>
+  <si>
+    <t>BFX0034452</t>
+  </si>
+  <si>
+    <t>D402007173</t>
+  </si>
+  <si>
+    <t>G001040556</t>
+  </si>
+  <si>
+    <t>G001040593</t>
+  </si>
+  <si>
+    <t>G001121503</t>
+  </si>
+  <si>
+    <t>G001121504</t>
+  </si>
+  <si>
+    <t>G001121505</t>
+  </si>
+  <si>
+    <t>G001121508</t>
+  </si>
+  <si>
+    <t>G001121510</t>
+  </si>
+  <si>
+    <t>G001121512</t>
+  </si>
+  <si>
+    <t>G001121513</t>
+  </si>
+  <si>
+    <t>G001121515</t>
+  </si>
+  <si>
+    <t>G001121519</t>
+  </si>
+  <si>
+    <t>G001121521</t>
+  </si>
+  <si>
+    <t>G001121522</t>
+  </si>
+  <si>
+    <t>G001121524</t>
+  </si>
+  <si>
+    <t>G001121525</t>
+  </si>
+  <si>
+    <t>G001121526</t>
+  </si>
+  <si>
+    <t>G001121533</t>
+  </si>
+  <si>
+    <t>G001121538</t>
+  </si>
+  <si>
+    <t>G001121541</t>
+  </si>
+  <si>
+    <t>G001121545</t>
+  </si>
+  <si>
+    <t>G001121547</t>
+  </si>
+  <si>
+    <t>G001121555</t>
+  </si>
+  <si>
+    <t>G001121557</t>
+  </si>
+  <si>
+    <t>G001121561</t>
+  </si>
+  <si>
+    <t>G001121568</t>
+  </si>
+  <si>
+    <t>G001121573</t>
+  </si>
+  <si>
+    <t>G001121579</t>
+  </si>
+  <si>
+    <t>G001121580</t>
+  </si>
+  <si>
+    <t>G001121594</t>
+  </si>
+  <si>
+    <t>G001121595</t>
+  </si>
+  <si>
+    <t>G001121597</t>
+  </si>
+  <si>
+    <t>G001121671</t>
+  </si>
+  <si>
+    <t>G001121684</t>
+  </si>
+  <si>
+    <t>G001121755</t>
+  </si>
+  <si>
+    <t>G001121761</t>
+  </si>
+  <si>
+    <t>CYP2B6</t>
+  </si>
+  <si>
+    <t>CYP2C9</t>
+  </si>
+  <si>
+    <t>CYP2D6</t>
+  </si>
+  <si>
+    <t>CYP3A4</t>
+  </si>
+  <si>
+    <t>COMT</t>
+  </si>
+  <si>
+    <t>DPYD</t>
+  </si>
+  <si>
+    <t>CYP1A2</t>
+  </si>
+  <si>
+    <t>G6PD</t>
+  </si>
+  <si>
+    <t>MTHFR677</t>
+  </si>
+  <si>
+    <t>TPMT</t>
+  </si>
+  <si>
+    <t>HLA-A*3101</t>
+  </si>
+  <si>
+    <t>HLA-B*1502</t>
+  </si>
+  <si>
+    <t>HLA-B*5701</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Not_PM</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>MISSING</t>
+  </si>
+  <si>
+    <t>*1/*58</t>
+  </si>
+  <si>
+    <t>*1/*15</t>
+  </si>
+  <si>
+    <t>*1/*18</t>
+  </si>
+  <si>
+    <t>*15/*22</t>
+  </si>
+  <si>
+    <t>*12/*24</t>
   </si>
 </sst>
 </file>
@@ -383,13 +605,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,6 +623,3250 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>175</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>454</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>460</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>489</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>713</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>776</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>778</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>780</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>999</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>1067</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>1069</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>1102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>1105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>1260</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>1263</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>1264</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>1266</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>1270</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>1299</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>1302</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>1315</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>1336</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>1338</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>1350</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>1371</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>1373</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>1562</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>1565</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>1567</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>1579</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>1589</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>1654</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>1658</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>1661</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>1663</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>1667</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>1670</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>1672</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>1676</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>1679</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>1681</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>1685</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>1688</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>1690</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>1694</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>1697</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>1699</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>1703</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>1706</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>1708</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>1712</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>1715</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>1717</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>1721</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>1724</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>1726</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>1730</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>1733</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>1735</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>1739</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>1742</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>1744</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>1748</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>1751</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>1753</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>1757</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" t="s">
+        <v>72</v>
+      </c>
+      <c r="E77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>1760</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>1762</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>1766</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" t="s">
+        <v>72</v>
+      </c>
+      <c r="E80" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>1769</v>
+      </c>
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" t="s">
+        <v>72</v>
+      </c>
+      <c r="E81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>1771</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" t="s">
+        <v>72</v>
+      </c>
+      <c r="E82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>1775</v>
+      </c>
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" t="s">
+        <v>72</v>
+      </c>
+      <c r="E83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>1778</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>1780</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>1784</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" t="s">
+        <v>72</v>
+      </c>
+      <c r="E86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>1787</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" t="s">
+        <v>72</v>
+      </c>
+      <c r="E87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>1789</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>65</v>
+      </c>
+      <c r="D88" t="s">
+        <v>72</v>
+      </c>
+      <c r="E88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>1793</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" t="s">
+        <v>72</v>
+      </c>
+      <c r="E89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>1796</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90" t="s">
+        <v>72</v>
+      </c>
+      <c r="E90" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>1798</v>
+      </c>
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>1802</v>
+      </c>
+      <c r="B92" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" t="s">
+        <v>72</v>
+      </c>
+      <c r="E92" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>1805</v>
+      </c>
+      <c r="B93" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>1807</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>1811</v>
+      </c>
+      <c r="B95" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" t="s">
+        <v>72</v>
+      </c>
+      <c r="E95" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>1814</v>
+      </c>
+      <c r="B96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" t="s">
+        <v>72</v>
+      </c>
+      <c r="E96" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>1816</v>
+      </c>
+      <c r="B97" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" t="s">
+        <v>65</v>
+      </c>
+      <c r="D97" t="s">
+        <v>72</v>
+      </c>
+      <c r="E97" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>1820</v>
+      </c>
+      <c r="B98" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" t="s">
+        <v>72</v>
+      </c>
+      <c r="E98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>1823</v>
+      </c>
+      <c r="B99" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" t="s">
+        <v>67</v>
+      </c>
+      <c r="D99" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>1825</v>
+      </c>
+      <c r="B100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" t="s">
+        <v>65</v>
+      </c>
+      <c r="D100" t="s">
+        <v>72</v>
+      </c>
+      <c r="E100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>1829</v>
+      </c>
+      <c r="B101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" t="s">
+        <v>66</v>
+      </c>
+      <c r="D101" t="s">
+        <v>72</v>
+      </c>
+      <c r="E101" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>1832</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" t="s">
+        <v>67</v>
+      </c>
+      <c r="D102" t="s">
+        <v>72</v>
+      </c>
+      <c r="E102" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>1834</v>
+      </c>
+      <c r="B103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" t="s">
+        <v>65</v>
+      </c>
+      <c r="D103" t="s">
+        <v>72</v>
+      </c>
+      <c r="E103" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>1838</v>
+      </c>
+      <c r="B104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" t="s">
+        <v>72</v>
+      </c>
+      <c r="E104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>1841</v>
+      </c>
+      <c r="B105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" t="s">
+        <v>67</v>
+      </c>
+      <c r="D105" t="s">
+        <v>72</v>
+      </c>
+      <c r="E105" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>1843</v>
+      </c>
+      <c r="B106" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106" t="s">
+        <v>72</v>
+      </c>
+      <c r="E106" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>1847</v>
+      </c>
+      <c r="B107" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" t="s">
+        <v>66</v>
+      </c>
+      <c r="D107" t="s">
+        <v>72</v>
+      </c>
+      <c r="E107" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>1850</v>
+      </c>
+      <c r="B108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" t="s">
+        <v>67</v>
+      </c>
+      <c r="D108" t="s">
+        <v>72</v>
+      </c>
+      <c r="E108" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>1852</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>65</v>
+      </c>
+      <c r="D109" t="s">
+        <v>72</v>
+      </c>
+      <c r="E109" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>1856</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>66</v>
+      </c>
+      <c r="D110" t="s">
+        <v>72</v>
+      </c>
+      <c r="E110" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>1859</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>67</v>
+      </c>
+      <c r="D111" t="s">
+        <v>72</v>
+      </c>
+      <c r="E111" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>1861</v>
+      </c>
+      <c r="B112" t="s">
+        <v>36</v>
+      </c>
+      <c r="C112" t="s">
+        <v>65</v>
+      </c>
+      <c r="D112" t="s">
+        <v>72</v>
+      </c>
+      <c r="E112" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>1865</v>
+      </c>
+      <c r="B113" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113" t="s">
+        <v>72</v>
+      </c>
+      <c r="E113" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>1868</v>
+      </c>
+      <c r="B114" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" t="s">
+        <v>67</v>
+      </c>
+      <c r="D114" t="s">
+        <v>72</v>
+      </c>
+      <c r="E114" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>1870</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D115" t="s">
+        <v>72</v>
+      </c>
+      <c r="E115" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>1874</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>66</v>
+      </c>
+      <c r="D116" t="s">
+        <v>72</v>
+      </c>
+      <c r="E116" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>1877</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>67</v>
+      </c>
+      <c r="D117" t="s">
+        <v>72</v>
+      </c>
+      <c r="E117" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>1879</v>
+      </c>
+      <c r="B118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118" t="s">
+        <v>65</v>
+      </c>
+      <c r="D118" t="s">
+        <v>72</v>
+      </c>
+      <c r="E118" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>1883</v>
+      </c>
+      <c r="B119" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" t="s">
+        <v>66</v>
+      </c>
+      <c r="D119" t="s">
+        <v>72</v>
+      </c>
+      <c r="E119" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>1886</v>
+      </c>
+      <c r="B120" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" t="s">
+        <v>67</v>
+      </c>
+      <c r="D120" t="s">
+        <v>72</v>
+      </c>
+      <c r="E120" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>1888</v>
+      </c>
+      <c r="B121" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" t="s">
+        <v>65</v>
+      </c>
+      <c r="D121" t="s">
+        <v>72</v>
+      </c>
+      <c r="E121" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>1892</v>
+      </c>
+      <c r="B122" t="s">
+        <v>38</v>
+      </c>
+      <c r="C122" t="s">
+        <v>66</v>
+      </c>
+      <c r="D122" t="s">
+        <v>72</v>
+      </c>
+      <c r="E122" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>1895</v>
+      </c>
+      <c r="B123" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123" t="s">
+        <v>67</v>
+      </c>
+      <c r="D123" t="s">
+        <v>72</v>
+      </c>
+      <c r="E123" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>1897</v>
+      </c>
+      <c r="B124" t="s">
+        <v>39</v>
+      </c>
+      <c r="C124" t="s">
+        <v>65</v>
+      </c>
+      <c r="D124" t="s">
+        <v>72</v>
+      </c>
+      <c r="E124" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>1901</v>
+      </c>
+      <c r="B125" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" t="s">
+        <v>66</v>
+      </c>
+      <c r="D125" t="s">
+        <v>72</v>
+      </c>
+      <c r="E125" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>1904</v>
+      </c>
+      <c r="B126" t="s">
+        <v>39</v>
+      </c>
+      <c r="C126" t="s">
+        <v>67</v>
+      </c>
+      <c r="D126" t="s">
+        <v>72</v>
+      </c>
+      <c r="E126" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>1906</v>
+      </c>
+      <c r="B127" t="s">
+        <v>40</v>
+      </c>
+      <c r="C127" t="s">
+        <v>65</v>
+      </c>
+      <c r="D127" t="s">
+        <v>72</v>
+      </c>
+      <c r="E127" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>1910</v>
+      </c>
+      <c r="B128" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128" t="s">
+        <v>66</v>
+      </c>
+      <c r="D128" t="s">
+        <v>72</v>
+      </c>
+      <c r="E128" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>1913</v>
+      </c>
+      <c r="B129" t="s">
+        <v>40</v>
+      </c>
+      <c r="C129" t="s">
+        <v>67</v>
+      </c>
+      <c r="D129" t="s">
+        <v>72</v>
+      </c>
+      <c r="E129" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>1915</v>
+      </c>
+      <c r="B130" t="s">
+        <v>41</v>
+      </c>
+      <c r="C130" t="s">
+        <v>65</v>
+      </c>
+      <c r="D130" t="s">
+        <v>72</v>
+      </c>
+      <c r="E130" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>1919</v>
+      </c>
+      <c r="B131" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" t="s">
+        <v>66</v>
+      </c>
+      <c r="D131" t="s">
+        <v>72</v>
+      </c>
+      <c r="E131" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>1922</v>
+      </c>
+      <c r="B132" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" t="s">
+        <v>67</v>
+      </c>
+      <c r="D132" t="s">
+        <v>72</v>
+      </c>
+      <c r="E132" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>1924</v>
+      </c>
+      <c r="B133" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" t="s">
+        <v>65</v>
+      </c>
+      <c r="D133" t="s">
+        <v>72</v>
+      </c>
+      <c r="E133" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>1928</v>
+      </c>
+      <c r="B134" t="s">
+        <v>42</v>
+      </c>
+      <c r="C134" t="s">
+        <v>66</v>
+      </c>
+      <c r="D134" t="s">
+        <v>72</v>
+      </c>
+      <c r="E134" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>1931</v>
+      </c>
+      <c r="B135" t="s">
+        <v>42</v>
+      </c>
+      <c r="C135" t="s">
+        <v>67</v>
+      </c>
+      <c r="D135" t="s">
+        <v>72</v>
+      </c>
+      <c r="E135" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>1933</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>65</v>
+      </c>
+      <c r="D136" t="s">
+        <v>72</v>
+      </c>
+      <c r="E136" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>1937</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>66</v>
+      </c>
+      <c r="D137" t="s">
+        <v>72</v>
+      </c>
+      <c r="E137" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>1940</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>67</v>
+      </c>
+      <c r="D138" t="s">
+        <v>72</v>
+      </c>
+      <c r="E138" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>1942</v>
+      </c>
+      <c r="B139" t="s">
+        <v>43</v>
+      </c>
+      <c r="C139" t="s">
+        <v>65</v>
+      </c>
+      <c r="D139" t="s">
+        <v>72</v>
+      </c>
+      <c r="E139" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>1946</v>
+      </c>
+      <c r="B140" t="s">
+        <v>43</v>
+      </c>
+      <c r="C140" t="s">
+        <v>66</v>
+      </c>
+      <c r="D140" t="s">
+        <v>72</v>
+      </c>
+      <c r="E140" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>1949</v>
+      </c>
+      <c r="B141" t="s">
+        <v>43</v>
+      </c>
+      <c r="C141" t="s">
+        <v>67</v>
+      </c>
+      <c r="D141" t="s">
+        <v>72</v>
+      </c>
+      <c r="E141" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>1951</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>65</v>
+      </c>
+      <c r="D142" t="s">
+        <v>72</v>
+      </c>
+      <c r="E142" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>1955</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>66</v>
+      </c>
+      <c r="D143" t="s">
+        <v>72</v>
+      </c>
+      <c r="E143" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>1958</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>67</v>
+      </c>
+      <c r="D144" t="s">
+        <v>72</v>
+      </c>
+      <c r="E144" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>1960</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>65</v>
+      </c>
+      <c r="D145" t="s">
+        <v>72</v>
+      </c>
+      <c r="E145" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>1964</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>66</v>
+      </c>
+      <c r="D146" t="s">
+        <v>72</v>
+      </c>
+      <c r="E146" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>1967</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>67</v>
+      </c>
+      <c r="D147" t="s">
+        <v>72</v>
+      </c>
+      <c r="E147" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>1969</v>
+      </c>
+      <c r="B148" t="s">
+        <v>44</v>
+      </c>
+      <c r="C148" t="s">
+        <v>65</v>
+      </c>
+      <c r="D148" t="s">
+        <v>72</v>
+      </c>
+      <c r="E148" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>1973</v>
+      </c>
+      <c r="B149" t="s">
+        <v>44</v>
+      </c>
+      <c r="C149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D149" t="s">
+        <v>72</v>
+      </c>
+      <c r="E149" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>1976</v>
+      </c>
+      <c r="B150" t="s">
+        <v>44</v>
+      </c>
+      <c r="C150" t="s">
+        <v>67</v>
+      </c>
+      <c r="D150" t="s">
+        <v>72</v>
+      </c>
+      <c r="E150" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>1978</v>
+      </c>
+      <c r="B151" t="s">
+        <v>45</v>
+      </c>
+      <c r="C151" t="s">
+        <v>65</v>
+      </c>
+      <c r="D151" t="s">
+        <v>72</v>
+      </c>
+      <c r="E151" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>1982</v>
+      </c>
+      <c r="B152" t="s">
+        <v>45</v>
+      </c>
+      <c r="C152" t="s">
+        <v>66</v>
+      </c>
+      <c r="D152" t="s">
+        <v>72</v>
+      </c>
+      <c r="E152" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>1985</v>
+      </c>
+      <c r="B153" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" t="s">
+        <v>67</v>
+      </c>
+      <c r="D153" t="s">
+        <v>72</v>
+      </c>
+      <c r="E153" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>1987</v>
+      </c>
+      <c r="B154" t="s">
+        <v>46</v>
+      </c>
+      <c r="C154" t="s">
+        <v>65</v>
+      </c>
+      <c r="D154" t="s">
+        <v>72</v>
+      </c>
+      <c r="E154" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>1991</v>
+      </c>
+      <c r="B155" t="s">
+        <v>46</v>
+      </c>
+      <c r="C155" t="s">
+        <v>66</v>
+      </c>
+      <c r="D155" t="s">
+        <v>72</v>
+      </c>
+      <c r="E155" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>1994</v>
+      </c>
+      <c r="B156" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" t="s">
+        <v>67</v>
+      </c>
+      <c r="D156" t="s">
+        <v>72</v>
+      </c>
+      <c r="E156" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>1996</v>
+      </c>
+      <c r="B157" t="s">
+        <v>47</v>
+      </c>
+      <c r="C157" t="s">
+        <v>65</v>
+      </c>
+      <c r="D157" t="s">
+        <v>72</v>
+      </c>
+      <c r="E157" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B158" t="s">
+        <v>47</v>
+      </c>
+      <c r="C158" t="s">
+        <v>66</v>
+      </c>
+      <c r="D158" t="s">
+        <v>72</v>
+      </c>
+      <c r="E158" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B159" t="s">
+        <v>47</v>
+      </c>
+      <c r="C159" t="s">
+        <v>67</v>
+      </c>
+      <c r="D159" t="s">
+        <v>72</v>
+      </c>
+      <c r="E159" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>65</v>
+      </c>
+      <c r="D160" t="s">
+        <v>72</v>
+      </c>
+      <c r="E160" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>66</v>
+      </c>
+      <c r="D161" t="s">
+        <v>72</v>
+      </c>
+      <c r="E161" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>67</v>
+      </c>
+      <c r="D162" t="s">
+        <v>72</v>
+      </c>
+      <c r="E162" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B163" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" t="s">
+        <v>65</v>
+      </c>
+      <c r="D163" t="s">
+        <v>72</v>
+      </c>
+      <c r="E163" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" t="s">
+        <v>66</v>
+      </c>
+      <c r="D164" t="s">
+        <v>72</v>
+      </c>
+      <c r="E164" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" t="s">
+        <v>67</v>
+      </c>
+      <c r="D165" t="s">
+        <v>72</v>
+      </c>
+      <c r="E165" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166" t="s">
+        <v>72</v>
+      </c>
+      <c r="E166" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B167" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" t="s">
+        <v>66</v>
+      </c>
+      <c r="D167" t="s">
+        <v>72</v>
+      </c>
+      <c r="E167" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B168" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" t="s">
+        <v>67</v>
+      </c>
+      <c r="D168" t="s">
+        <v>72</v>
+      </c>
+      <c r="E168" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B169" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169" t="s">
+        <v>65</v>
+      </c>
+      <c r="D169" t="s">
+        <v>72</v>
+      </c>
+      <c r="E169" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B170" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" t="s">
+        <v>66</v>
+      </c>
+      <c r="D170" t="s">
+        <v>72</v>
+      </c>
+      <c r="E170" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C171" t="s">
+        <v>67</v>
+      </c>
+      <c r="D171" t="s">
+        <v>72</v>
+      </c>
+      <c r="E171" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B172" t="s">
+        <v>48</v>
+      </c>
+      <c r="C172" t="s">
+        <v>65</v>
+      </c>
+      <c r="D172" t="s">
+        <v>72</v>
+      </c>
+      <c r="E172" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B173" t="s">
+        <v>48</v>
+      </c>
+      <c r="C173" t="s">
+        <v>66</v>
+      </c>
+      <c r="D173" t="s">
+        <v>72</v>
+      </c>
+      <c r="E173" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B174" t="s">
+        <v>48</v>
+      </c>
+      <c r="C174" t="s">
+        <v>67</v>
+      </c>
+      <c r="D174" t="s">
+        <v>72</v>
+      </c>
+      <c r="E174" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B175" t="s">
+        <v>49</v>
+      </c>
+      <c r="C175" t="s">
+        <v>65</v>
+      </c>
+      <c r="D175" t="s">
+        <v>72</v>
+      </c>
+      <c r="E175" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>2054</v>
+      </c>
+      <c r="B176" t="s">
+        <v>49</v>
+      </c>
+      <c r="C176" t="s">
+        <v>66</v>
+      </c>
+      <c r="D176" t="s">
+        <v>72</v>
+      </c>
+      <c r="E176" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
+        <v>2057</v>
+      </c>
+      <c r="B177" t="s">
+        <v>49</v>
+      </c>
+      <c r="C177" t="s">
+        <v>67</v>
+      </c>
+      <c r="D177" t="s">
+        <v>72</v>
+      </c>
+      <c r="E177" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>2059</v>
+      </c>
+      <c r="B178" t="s">
+        <v>50</v>
+      </c>
+      <c r="C178" t="s">
+        <v>65</v>
+      </c>
+      <c r="D178" t="s">
+        <v>72</v>
+      </c>
+      <c r="E178" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>2063</v>
+      </c>
+      <c r="B179" t="s">
+        <v>50</v>
+      </c>
+      <c r="C179" t="s">
+        <v>66</v>
+      </c>
+      <c r="D179" t="s">
+        <v>72</v>
+      </c>
+      <c r="E179" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>2066</v>
+      </c>
+      <c r="B180" t="s">
+        <v>50</v>
+      </c>
+      <c r="C180" t="s">
+        <v>67</v>
+      </c>
+      <c r="D180" t="s">
+        <v>72</v>
+      </c>
+      <c r="E180" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>2068</v>
+      </c>
+      <c r="B181" t="s">
+        <v>51</v>
+      </c>
+      <c r="C181" t="s">
+        <v>65</v>
+      </c>
+      <c r="D181" t="s">
+        <v>72</v>
+      </c>
+      <c r="E181" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>2072</v>
+      </c>
+      <c r="B182" t="s">
+        <v>51</v>
+      </c>
+      <c r="C182" t="s">
+        <v>66</v>
+      </c>
+      <c r="D182" t="s">
+        <v>72</v>
+      </c>
+      <c r="E182" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
+        <v>2075</v>
+      </c>
+      <c r="B183" t="s">
+        <v>51</v>
+      </c>
+      <c r="C183" t="s">
+        <v>67</v>
+      </c>
+      <c r="D183" t="s">
+        <v>72</v>
+      </c>
+      <c r="E183" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>2077</v>
+      </c>
+      <c r="B184" t="s">
+        <v>52</v>
+      </c>
+      <c r="C184" t="s">
+        <v>65</v>
+      </c>
+      <c r="D184" t="s">
+        <v>72</v>
+      </c>
+      <c r="E184" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1">
+        <v>2081</v>
+      </c>
+      <c r="B185" t="s">
+        <v>52</v>
+      </c>
+      <c r="C185" t="s">
+        <v>66</v>
+      </c>
+      <c r="D185" t="s">
+        <v>72</v>
+      </c>
+      <c r="E185" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
+        <v>2084</v>
+      </c>
+      <c r="B186" t="s">
+        <v>52</v>
+      </c>
+      <c r="C186" t="s">
+        <v>67</v>
+      </c>
+      <c r="D186" t="s">
+        <v>72</v>
+      </c>
+      <c r="E186" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1">
+        <v>2086</v>
+      </c>
+      <c r="B187" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187" t="s">
+        <v>65</v>
+      </c>
+      <c r="D187" t="s">
+        <v>72</v>
+      </c>
+      <c r="E187" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1">
+        <v>2090</v>
+      </c>
+      <c r="B188" t="s">
+        <v>17</v>
+      </c>
+      <c r="C188" t="s">
+        <v>66</v>
+      </c>
+      <c r="D188" t="s">
+        <v>72</v>
+      </c>
+      <c r="E188" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
+        <v>2093</v>
+      </c>
+      <c r="B189" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189" t="s">
+        <v>67</v>
+      </c>
+      <c r="D189" t="s">
+        <v>72</v>
+      </c>
+      <c r="E189" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
+        <v>2095</v>
+      </c>
+      <c r="B190" t="s">
+        <v>53</v>
+      </c>
+      <c r="C190" t="s">
+        <v>65</v>
+      </c>
+      <c r="D190" t="s">
+        <v>72</v>
+      </c>
+      <c r="E190" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1">
+        <v>2099</v>
+      </c>
+      <c r="B191" t="s">
+        <v>53</v>
+      </c>
+      <c r="C191" t="s">
+        <v>66</v>
+      </c>
+      <c r="D191" t="s">
+        <v>72</v>
+      </c>
+      <c r="E191" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1">
+        <v>2102</v>
+      </c>
+      <c r="B192" t="s">
+        <v>53</v>
+      </c>
+      <c r="C192" t="s">
+        <v>67</v>
+      </c>
+      <c r="D192" t="s">
+        <v>72</v>
+      </c>
+      <c r="E192" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1">
+        <v>2104</v>
+      </c>
+      <c r="B193" t="s">
+        <v>54</v>
+      </c>
+      <c r="C193" t="s">
+        <v>65</v>
+      </c>
+      <c r="D193" t="s">
+        <v>72</v>
+      </c>
+      <c r="E193" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1">
+        <v>2108</v>
+      </c>
+      <c r="B194" t="s">
+        <v>54</v>
+      </c>
+      <c r="C194" t="s">
+        <v>66</v>
+      </c>
+      <c r="D194" t="s">
+        <v>72</v>
+      </c>
+      <c r="E194" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1">
+        <v>2111</v>
+      </c>
+      <c r="B195" t="s">
+        <v>54</v>
+      </c>
+      <c r="C195" t="s">
+        <v>67</v>
+      </c>
+      <c r="D195" t="s">
+        <v>72</v>
+      </c>
+      <c r="E195" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Diagnostics/unknowns.xlsx
+++ b/Output/Diagnostics/unknowns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,69 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>G001135709</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>RYR1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>G001135729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>RYR1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>1844</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>G001135925</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>RYR1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
